--- a/Status.xlsx
+++ b/Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24255" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24255" windowHeight="10980" tabRatio="343"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Received</t>
   </si>
@@ -78,6 +75,39 @@
   </si>
   <si>
     <t>Filed</t>
+  </si>
+  <si>
+    <t>Admin Screen</t>
+  </si>
+  <si>
+    <t>Supervisor/Assessor</t>
+  </si>
+  <si>
+    <t>Shown On Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Do </t>
+  </si>
+  <si>
+    <t>Mark as Received</t>
+  </si>
+  <si>
+    <t>Mark as Validated</t>
+  </si>
+  <si>
+    <t>Mark as approved</t>
+  </si>
+  <si>
+    <t>Mark as for release</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>0000-2020</t>
+  </si>
+  <si>
+    <t>(B) 40-000000-0001 s.2019</t>
   </si>
 </sst>
 </file>
@@ -396,84 +426,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
